--- a/S4/CKDN_dist.xlsx
+++ b/S4/CKDN_dist.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTHER\ترم 3\پایاننامه\proposal\knowledge distillation\CKDN_code\S4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -235,8 +240,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +278,172 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164127</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753351" y="200026"/>
+          <a:ext cx="3383576" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>379887</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991975" y="114300"/>
+          <a:ext cx="3627912" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590793</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="3952875"/>
+          <a:ext cx="3286368" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>384056</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600687</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11966456" y="4019550"/>
+          <a:ext cx="3264631" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +521,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +556,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:F297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:6">
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -575,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="5:6">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -583,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="5:6">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -591,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -599,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="5:6">
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>12</v>
       </c>
@@ -607,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="5:6">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -615,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="5:6">
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>18</v>
       </c>
@@ -623,7 +797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="5:6">
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>21</v>
       </c>
@@ -631,7 +805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="5:6">
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>24</v>
       </c>
@@ -639,7 +813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="5:6">
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -647,7 +821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="5:6">
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>30</v>
       </c>
@@ -655,7 +829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>33</v>
       </c>
@@ -663,7 +837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="5:6">
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>36</v>
       </c>
@@ -671,7 +845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>39</v>
       </c>
@@ -679,7 +853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>42</v>
       </c>
@@ -687,7 +861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>45</v>
       </c>
@@ -695,7 +869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>48</v>
       </c>
@@ -703,7 +877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="5:6">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>51</v>
       </c>
@@ -711,7 +885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>54</v>
       </c>
@@ -719,7 +893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>57</v>
       </c>
@@ -727,7 +901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>60</v>
       </c>
@@ -735,7 +909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="5:6">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>63</v>
       </c>
@@ -743,7 +917,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="5:6">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>66</v>
       </c>
@@ -751,7 +925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="5:6">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>69</v>
       </c>
@@ -759,7 +933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="5:6">
+    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
         <v>0</v>
       </c>
@@ -767,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="5:6">
+    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
         <v>3</v>
       </c>
@@ -775,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="5:6">
+    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
         <v>6</v>
       </c>
@@ -783,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="5:6">
+    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
         <v>9</v>
       </c>
@@ -791,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="5:6">
+    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
         <v>12</v>
       </c>
@@ -799,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="5:6">
+    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
         <v>15</v>
       </c>
@@ -807,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="5:6">
+    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
         <v>18</v>
       </c>
@@ -815,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="5:6">
+    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
         <v>21</v>
       </c>
@@ -823,7 +997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="5:6">
+    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
         <v>24</v>
       </c>
@@ -831,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="5:6">
+    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
         <v>27</v>
       </c>
@@ -839,7 +1013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="284" spans="5:6">
+    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
         <v>30</v>
       </c>
@@ -847,7 +1021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="285" spans="5:6">
+    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
         <v>33</v>
       </c>
@@ -855,7 +1029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="5:6">
+    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
         <v>36</v>
       </c>
@@ -863,7 +1037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="287" spans="5:6">
+    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
         <v>39</v>
       </c>
@@ -871,7 +1045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="5:6">
+    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
         <v>42</v>
       </c>
@@ -879,7 +1053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="289" spans="5:6">
+    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
         <v>45</v>
       </c>
@@ -887,7 +1061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="5:6">
+    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
         <v>48</v>
       </c>
@@ -895,7 +1069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="291" spans="5:6">
+    <row r="291" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
         <v>51</v>
       </c>
@@ -903,7 +1077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="5:6">
+    <row r="292" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
         <v>54</v>
       </c>
@@ -911,7 +1085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="293" spans="5:6">
+    <row r="293" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
         <v>57</v>
       </c>
@@ -919,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="5:6">
+    <row r="294" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
         <v>60</v>
       </c>
@@ -927,7 +1101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="5:6">
+    <row r="295" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
         <v>63</v>
       </c>
@@ -935,7 +1109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="296" spans="5:6">
+    <row r="296" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
         <v>66</v>
       </c>
@@ -943,7 +1117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="297" spans="5:6">
+    <row r="297" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
         <v>69</v>
       </c>
@@ -953,5 +1127,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>